--- a/data/mall-cloud-alibaba/pms-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/pms-common_structure.xlsx
@@ -168,28 +168,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>productSn</t>
-  </si>
-  <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1089,7 +1089,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>49</v>
@@ -1111,13 +1111,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1125,13 +1125,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1139,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1159,7 +1159,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
